--- a/data/trans_bre/BARTHEL_R3-Edad-trans_bre.xlsx
+++ b/data/trans_bre/BARTHEL_R3-Edad-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>1.21979007019961</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.4580208614204495</v>
+        <v>0.4580208614204496</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4791436584726009</v>
+        <v>-0.08807902739470036</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.225893613658184</v>
+        <v>1.337061501109167</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.686028066901338</v>
+        <v>5.065528922317601</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.638933150090211</v>
+        <v>2.039464451392748</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.04615920822127598</v>
+        <v>-0.04432619882923596</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08368398485590135</v>
+        <v>0.08880038827206246</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.47386472482684</v>
+        <v>0.4405750728258458</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1189168971679633</v>
+        <v>0.1368797907326196</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.328652578047762</v>
+        <v>8.487255628969685</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.8312220503067</v>
+        <v>12.09125079559674</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.54868943746289</v>
+        <v>14.76814181476569</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.302513004901753</v>
+        <v>9.519876059484432</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.107563569656312</v>
+        <v>1.952805591414759</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.552276214118929</v>
+        <v>1.627174357223813</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.467019679479264</v>
+        <v>2.513968250882922</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.884058029094725</v>
+        <v>0.8931030822890856</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.139709034690668</v>
+        <v>-0.8587964878482162</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>6.746536552092018</v>
+        <v>7.20888044261963</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7.454425324840643</v>
+        <v>7.265869229332353</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>17.01433998712724</v>
+        <v>16.86541833352739</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.03470668114898691</v>
+        <v>-0.02485755564722974</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.18495064104492</v>
+        <v>0.2017142640577283</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2329319508480604</v>
+        <v>0.2218873400768246</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.4773434213052321</v>
+        <v>0.4684500254885725</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>14.23680972066514</v>
+        <v>13.67294640948704</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>22.5359975498362</v>
+        <v>23.95773881155631</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>22.29901875028244</v>
+        <v>22.50856901610184</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>27.82256330861132</v>
+        <v>28.08599164537522</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7339443816755206</v>
+        <v>0.7104223446185662</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8752350571030609</v>
+        <v>0.9632903065185124</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9116487151981202</v>
+        <v>0.9082538445865938</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.9590269959761337</v>
+        <v>0.9622046105873909</v>
       </c>
     </row>
     <row r="10">
@@ -849,7 +849,7 @@
         <v>0.8144915277670763</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.763876834795952</v>
+        <v>0.7638768347959518</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.450306998822487</v>
+        <v>3.241163022013057</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.495315625446771</v>
+        <v>7.833415453009043</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9.279604832742356</v>
+        <v>8.918204349039231</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>12.30714628503457</v>
+        <v>12.60193912834694</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.151911289320539</v>
+        <v>0.207879018853291</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3399854401493474</v>
+        <v>0.3838851936076307</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4660626143659354</v>
+        <v>0.4780036333228499</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.527895786590003</v>
+        <v>0.5430983762766953</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.25971492385305</v>
+        <v>11.62938117367496</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>17.27300610323029</v>
+        <v>17.84015707107275</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>18.47583703934092</v>
+        <v>18.76919236132097</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>19.34126897484494</v>
+        <v>19.34745561071107</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9949857365169597</v>
+        <v>1.061146935349448</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.07822165799717</v>
+        <v>1.144727759860751</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.256210535731937</v>
+        <v>1.267413537488586</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.007316522545616</v>
+        <v>0.9897319955556753</v>
       </c>
     </row>
     <row r="13">
